--- a/Reports/Reports.xlsx
+++ b/Reports/Reports.xlsx
@@ -10,14 +10,14 @@
     <sheet name="by most recent 104" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'by most recent 104'!$B$1:$L$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'by most recent 104'!$B$1:$L$25</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Column header info at bottom</t>
   </si>
@@ -203,39 +203,6 @@
   </si>
   <si>
     <t>ELECTRONICS AND SOFTWARE FOR THE VISUAL STIMULUS LAB</t>
-  </si>
-  <si>
-    <t>1984.  Effects of laser radiation on the eye: vol. IV.  Technology Incorporated, Final Report, Contract F33615-80-C-0610, USAF School of Aerospace Medicine, SAM-TR-85-13.</t>
-  </si>
-  <si>
-    <t>Zuclich, J.A., R.D. Glickman, F.H. Previc, A.R. Menendez, J.C. Brakefield, M.F. Blankenstein, P.V. Garcia, A.J. Catalano, W.R. Elliott, &amp; D.J. Coffey</t>
-  </si>
-  <si>
-    <t>1984.  Effects of laser radiation on the eye: vol. V.  Technology Incorporated, Executive Summary, Contract F33615-80-C-0610, USAF School of Aerospace Medicine, SAM-TR-85-53.</t>
-  </si>
-  <si>
-    <t>Zuclich, J.A., R.D. Glickman, F.H. Previc, A.R. Menendez, and J.C. Brakefield</t>
-  </si>
-  <si>
-    <t>1983.  Effects of laser radiation on the eye: vol. III.  Technology Incorporated, Third Annual Report, Contract F33615-80-C-0610, USAF School of Aerospace Medicine, SAM-TR-85-12.</t>
-  </si>
-  <si>
-    <t>Zuclich, J.A., R.D. Glickman, F.H. Previc, J.C. Brakefield, M.F. Blankenstein, and P.V. Garcia</t>
-  </si>
-  <si>
-    <t>1982.  Effects of laser radiation on the eye: vol. II.  Technology Incorporated, Second Annual Report, Contract F33615-80-C-0610, USAF School of Aerospace Medicine, SAM-TR-84-10.</t>
-  </si>
-  <si>
-    <t>Zuclich, J.A., R.D. Glickman, F.H. Previc, J.C. Brakefield, M.F. Blankenstein, D.L. Schafer, and J. Chambers</t>
-  </si>
-  <si>
-    <t>1981.  Effects of laser radiation on the eye: vol. I.  Technology Incorporated, First Annual Report, Contract F33615-80-C-0610, USAF School of Aerospace Medicine, SAM-TR-83-6.</t>
-  </si>
-  <si>
-    <t>Zuclich, J.A., R.D. Glickman, R.L. Klingman, G.A. Greiss, J.C. Brakefield, M.C. Thew, and D.L. Schafer</t>
-  </si>
-  <si>
-    <t>1980.  Research on the ocular effects of laser radiation.  Technology Incorporated, Final Report, Contract F33615-77-C-0615, USAF School of Aerospace Medicine, SAM-TR-82-4.</t>
   </si>
   <si>
     <t>1979.  Research on the ocular effects of laser radiation.  Technology Incorporated, Second Annual Report, Contract F33615-77-C-0615, USAF School of Aerospace Medicine.</t>
@@ -621,7 +588,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -730,9 +697,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,12 +1066,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A18" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection sqref="A1:XFD3"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1127,13 +1091,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J1" s="45" t="s">
-        <v>99</v>
+      <c r="J1" s="44" t="s">
+        <v>88</v>
       </c>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="46" t="s">
+      <c r="J2" s="45" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1199,16 +1163,16 @@
       <c r="G5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="56" t="s">
+      <c r="J5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="55" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="23" t="s">
@@ -1441,10 +1405,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="33" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="27"/>
+    <row r="12" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="26">
+        <v>28915</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="D12" s="27"/>
       <c r="E12" s="28" t="s">
         <v>57</v>
@@ -1459,362 +1429,220 @@
         <v>62</v>
       </c>
       <c r="K12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="1:12" s="33" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="56">
+        <v>28581</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="42"/>
+    </row>
+    <row r="14" spans="1:12" s="33" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="31" t="s">
+      <c r="C15" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="38" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="32"/>
-    </row>
-    <row r="15" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="31" t="s">
+      <c r="C16" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>68</v>
       </c>
-      <c r="K15" s="31" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="31" t="s">
+      <c r="C17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="31" t="s">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L16" s="32"/>
-    </row>
-    <row r="17" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="31" t="s">
+      <c r="C18" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="1:12" s="33" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="31" t="s">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K18" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="32"/>
-    </row>
-    <row r="19" spans="1:12" s="33" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="57">
-        <v>28581</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="58" t="s">
+      <c r="C19" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
         <v>74</v>
       </c>
-      <c r="I19" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="42" t="s">
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K19" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="L19" s="43"/>
-    </row>
-    <row r="20" spans="1:12" s="33" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>1</v>
+        <v>77</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>2</v>
+        <v>79</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="44" t="s">
-        <v>3</v>
+        <v>82</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>4</v>
+        <v>84</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>5</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="H27"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="4"/>
-      <c r="H28"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" t="s">
-        <v>96</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-      <c r="G31" s="4"/>
-      <c r="H31"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="7"/>
+      <c r="G25" s="4"/>
+      <c r="H25"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1826,7 +1654,7 @@
     <hyperlink ref="H9" r:id="rId6"/>
     <hyperlink ref="H11" r:id="rId7"/>
     <hyperlink ref="H6" r:id="rId8"/>
-    <hyperlink ref="H19" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="60" fitToHeight="2" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
